--- a/res/testcase/parking/passAndOut.xlsx
+++ b/res/testcase/parking/passAndOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -2061,8 +2061,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2301,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/parking/passAndOut.xlsx
+++ b/res/testcase/parking/passAndOut.xlsx
@@ -414,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -442,7 +442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +450,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +466,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,70 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,10 +515,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +560,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -600,187 +600,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,60 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -891,7 +837,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,8 +860,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/parking/passAndOut.xlsx
+++ b/res/testcase/parking/passAndOut.xlsx
@@ -4,20 +4,40 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
     <sheet name="001_checkInsideCar" sheetId="2" r:id="rId2"/>
     <sheet name="002_checkChargeBill" sheetId="6" r:id="rId3"/>
     <sheet name="003_checkLeaveCar" sheetId="3" r:id="rId4"/>
+    <sheet name="004_abnormalInsideCar" sheetId="7" r:id="rId5"/>
+    <sheet name="005_adjustCarWaterNum" sheetId="8" r:id="rId6"/>
+    <sheet name="006_exportInsideCar" sheetId="9" r:id="rId7"/>
+    <sheet name="007_exportLeaveCar" sheetId="10" r:id="rId8"/>
+    <sheet name="008_exportChargeBill" sheetId="11" r:id="rId9"/>
+    <sheet name="009_exportAbnormalCarCome" sheetId="12" r:id="rId10"/>
+    <sheet name="010_exportAbnormalCarOut" sheetId="13" r:id="rId11"/>
+    <sheet name="011_exportNoSystemOpening" sheetId="14" r:id="rId12"/>
+    <sheet name="012_exportArrearageCar" sheetId="15" r:id="rId13"/>
+    <sheet name="013_exportAbnormalPhoto" sheetId="16" r:id="rId14"/>
+    <sheet name="014_exportAdjustWater" sheetId="17" r:id="rId15"/>
+    <sheet name="015_filterInsideCar" sheetId="18" r:id="rId16"/>
+    <sheet name="016_filterLeaveCar" sheetId="19" r:id="rId17"/>
+    <sheet name="017_filterChargeBill" sheetId="20" r:id="rId18"/>
+    <sheet name="018_filterAbnormalCarCome" sheetId="21" r:id="rId19"/>
+    <sheet name="019_filterAbnormalCarOut" sheetId="22" r:id="rId20"/>
+    <sheet name="020_filterNoSystemOpening" sheetId="23" r:id="rId21"/>
+    <sheet name="021_filterArrearageCar" sheetId="24" r:id="rId22"/>
+    <sheet name="022_filterAbnormalPhoto" sheetId="25" r:id="rId23"/>
+    <sheet name="023_filterAdjustWater" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t>动作</t>
   </si>
@@ -259,6 +279,9 @@
     <t>创建一个"粤Z"开头的随机车牌，参数为一个变量</t>
   </si>
   <si>
+    <t>检查列表的文本</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -407,6 +430,231 @@
   </si>
   <si>
     <t>CarPassAndOutPage.查询离场记录</t>
+  </si>
+  <si>
+    <t>${004_abnormalInsideCar}.车牌号;0</t>
+  </si>
+  <si>
+    <t>再次模拟进场</t>
+  </si>
+  <si>
+    <t>点击异常进场</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.异常进场</t>
+  </si>
+  <si>
+    <t>1导常进场界面</t>
+  </si>
+  <si>
+    <t>选择车牌号码选项</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.车牌号码选项</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.车牌号码搜索框</t>
+  </si>
+  <si>
+    <t>${004_abnormalInsideCar}.车牌号</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>校正车牌号</t>
+  </si>
+  <si>
+    <t>1在场车场界面</t>
+  </si>
+  <si>
+    <t>点击车牌校正</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.车牌校正</t>
+  </si>
+  <si>
+    <t>输入最终车牌</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.最终车牌</t>
+  </si>
+  <si>
+    <t>${005_adjustCarWaterNum}.校正车牌号</t>
+  </si>
+  <si>
+    <t>2校正界面</t>
+  </si>
+  <si>
+    <t>确认校正</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.确认校正</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>校正成功</t>
+  </si>
+  <si>
+    <t>3校正成功界面</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.关闭</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>点击校正流水</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.校正流水</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>4校正流水界面</t>
+  </si>
+  <si>
+    <t>时间选择</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.时间选择</t>
+  </si>
+  <si>
+    <t>最近三个月</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.最近三个月</t>
+  </si>
+  <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.导出</t>
+  </si>
+  <si>
+    <t>2导出界面</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.确认-提示</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
+  </si>
+  <si>
+    <t>3导出成功界面</t>
+  </si>
+  <si>
+    <t>点击离场记录</t>
+  </si>
+  <si>
+    <t>1收费流水界面</t>
+  </si>
+  <si>
+    <t>1异常进场界面</t>
+  </si>
+  <si>
+    <t>点击异常放行</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.异常放行</t>
+  </si>
+  <si>
+    <t>1异常放行界面</t>
+  </si>
+  <si>
+    <t>点击非系统开闸</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.非系统开闸</t>
+  </si>
+  <si>
+    <t>1非系统开闸界面</t>
+  </si>
+  <si>
+    <t>点击欠费车辆</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.欠费车辆</t>
+  </si>
+  <si>
+    <t>1欠费车辆界面</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.欠费时间选择</t>
+  </si>
+  <si>
+    <t>点击异常拍照</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.异常拍照</t>
+  </si>
+  <si>
+    <t>1异常拍照界面</t>
+  </si>
+  <si>
+    <t>1校正流水界面</t>
+  </si>
+  <si>
+    <t>请选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.请选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>2筛选界面</t>
+  </si>
+  <si>
+    <t>选择筛选停车场</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.停车场列表</t>
+  </si>
+  <si>
+    <t>自动化测试停车场;on</t>
+  </si>
+  <si>
+    <t>自动化测试停车场</t>
+  </si>
+  <si>
+    <t>3筛选成功界面</t>
+  </si>
+  <si>
+    <t>筛选停车场</t>
+  </si>
+  <si>
+    <t>勾选</t>
+  </si>
+  <si>
+    <t>点击复制开票链接</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>出租车停车场;on</t>
+  </si>
+  <si>
+    <t>出租车停车场</t>
+  </si>
+  <si>
+    <t>分钟</t>
   </si>
 </sst>
 </file>
@@ -416,10 +664,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +680,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -600,7 +853,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +925,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,6 +938,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,54 +973,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,25 +985,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,25 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,141 +1192,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1082,13 +1338,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1452,10 +1711,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1465,270 +1724,270 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1744,7 +2003,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1752,7 +2011,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1760,7 +2019,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1768,37 +2027,2370 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="C6:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10 C11 C2:C5 C12:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C12 C13 C2:C5 C10:C11">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C12 C13 C2:C5 C10:C11">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1808,234 +4400,234 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="B10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>118</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2056,13 +4648,1183 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2075,208 +5837,208 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="28" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2301,223 +6063,223 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>118</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2541,4 +6303,1340 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C20:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C11 C12 C13 C2:C4 C6:C10 C14:C19">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C21:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C2:C7 C10:C19">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/parking/passAndOut.xlsx
+++ b/res/testcase/parking/passAndOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
   <si>
     <t>动作</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>选择停车场</t>
+  </si>
+  <si>
+    <t>暂停2秒</t>
   </si>
   <si>
     <t>出租车停车场;on</t>
@@ -662,9 +665,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -695,7 +698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +706,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,13 +722,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,8 +743,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,29 +826,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -799,40 +834,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,31 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +868,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +904,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -919,19 +976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,37 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,13 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,25 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,6 +1078,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1090,7 +1147,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,62 +1170,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,10 +1183,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,133 +1195,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1713,8 +1716,8 @@
   <sheetPr/>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4651,10 +4654,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4841,16 +4844,14 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4858,22 +4859,39 @@
         <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C12 C2:C5 C10:C11 C13:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -5067,7 +5085,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5084,7 +5102,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5318,7 +5336,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5535,7 +5553,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5552,7 +5570,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5823,8 +5841,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/parking/passAndOut.xlsx
+++ b/res/testcase/parking/passAndOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <t>2查询界面</t>
   </si>
   <si>
-    <t>${001_checkInsideCar}.车牌号;2KNX073C</t>
+    <t>${001_checkInsideCar}.车牌号;$全局变量.停车场parkcode</t>
   </si>
   <si>
     <t>点击车场管理</t>
@@ -627,10 +627,10 @@
     <t>CarPassAndOutPage.停车场列表</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
-  </si>
-  <si>
-    <t>自动化测试停车场</t>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称</t>
   </si>
   <si>
     <t>3筛选成功界面</t>
@@ -651,10 +651,10 @@
     <t>暂停2秒</t>
   </si>
   <si>
-    <t>出租车停车场;on</t>
-  </si>
-  <si>
-    <t>出租车停车场</t>
+    <t>$全局变量.筛选数据停车场名称;on</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称</t>
   </si>
   <si>
     <t>分钟</t>
@@ -665,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -706,48 +706,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,53 +721,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,8 +740,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,25 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,66 +886,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -976,13 +898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +934,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +970,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,13 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,17 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,7 +1097,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,17 +1117,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,35 +1161,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,10 +1183,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,133 +1195,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,7 +1435,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1716,7 +1716,7 @@
   <sheetPr/>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2071,1398 +2071,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="C6:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -3533,13 +2141,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3555,7 +2163,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3608,13 +2216,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3630,7 +2238,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3638,17 +2246,15 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
@@ -3658,13 +2264,13 @@
         <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3679,7 +2285,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +2293,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10 C11 C2:C5 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -3696,13 +2302,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3767,13 +2373,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3789,7 +2395,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3842,13 +2448,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3864,7 +2470,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3872,17 +2478,15 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>196</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
@@ -3892,13 +2496,13 @@
         <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3913,7 +2517,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3921,7 +2525,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C12 C13 C2:C5 C10:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -3930,7 +2534,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -4001,6 +2837,1170 @@
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C2:C5 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10 C11 C2:C5 C12:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C12 C13 C2:C5 C10:C11">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -4170,7 +4170,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4403,8 +4403,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="B10:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4657,7 +4657,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4906,7 +4906,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5139,8 +5139,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5319,7 +5319,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5374,7 +5374,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5608,7 +5608,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5842,7 +5842,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5850,7 +5850,7 @@
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6328,7 +6328,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -6622,8 +6622,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6969,7 +6969,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7201,7 +7201,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7433,7 +7433,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
